--- a/data/Nodal_2025_4.xlsx
+++ b/data/Nodal_2025_4.xlsx
@@ -509,17 +509,17 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -531,17 +531,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -553,17 +553,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -575,17 +575,17 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -597,17 +597,17 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -619,17 +619,17 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -685,17 +685,17 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -707,17 +707,17 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>nasiri</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
+          <t>amir</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
           <t>saeed</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>vahid</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>Hassan</t>
         </is>
       </c>
     </row>
@@ -751,17 +751,17 @@
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>Hassan</t>
         </is>
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -800,12 +800,12 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
+          <t>Hassan</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>amir</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
           <t>saeed</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>vahid</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>Hassan</t>
         </is>
       </c>
     </row>
@@ -839,17 +839,17 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>vahid</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -888,12 +888,12 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -905,17 +905,17 @@
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
+          <t>Hassan</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>amir</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
           <t>saeed</t>
-        </is>
-      </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>vahid</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>Hassan</t>
         </is>
       </c>
     </row>
@@ -927,17 +927,17 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>vahid</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -993,17 +993,17 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
+          <t>Hassan</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>amir</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
           <t>saeed</t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>vahid</t>
-        </is>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>Hassan</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>vahid</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
+          <t>Hassan</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>amir</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
+        <is>
           <t>saeed</t>
-        </is>
-      </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>vahid</t>
-        </is>
-      </c>
-      <c r="D30" s="6" t="inlineStr">
-        <is>
-          <t>Hassan</t>
         </is>
       </c>
     </row>
@@ -1103,17 +1103,17 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>vahid</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>saeed</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>vahid</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
@@ -1152,12 +1152,12 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Hokmabadi</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>amir</t>
+          <t>nasiri</t>
         </is>
       </c>
     </row>
